--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,103 +70,118 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>rice</t>
   </si>
   <si>
     <t>old</t>
@@ -175,25 +190,25 @@
     <t>ze</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>tea</t>
   </si>
   <si>
     <t>good</t>
@@ -202,55 +217,52 @@
     <t>pan</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>makes</t>
   </si>
   <si>
     <t>make</t>
@@ -259,25 +271,25 @@
     <t>clean</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -641,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -760,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.846749226006192</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2868217054263566</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2323232323232323</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2307692307692308</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1027027027027027</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1072,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1098,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1124,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6986301369863014</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1150,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6818181818181818</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1176,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.676056338028169</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1202,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6542372881355932</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L15">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1228,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1268,13 +1280,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1294,13 +1306,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6114285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1320,13 +1332,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1338,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1346,13 +1358,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1372,13 +1384,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5694444444444444</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1398,13 +1410,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1424,13 +1436,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.543859649122807</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1450,13 +1462,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5299145299145299</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1476,13 +1488,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5096153846153846</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1502,13 +1514,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4910179640718563</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1528,13 +1540,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.481203007518797</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1554,13 +1566,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4761904761904762</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1580,13 +1592,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1606,13 +1618,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4578313253012048</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1632,13 +1644,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4262295081967213</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1650,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1658,13 +1670,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3947368421052632</v>
+        <v>0.390625</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1684,13 +1696,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3915662650602409</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1710,25 +1722,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3692307692307693</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>24</v>
-      </c>
-      <c r="M35">
-        <v>24</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1736,13 +1748,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.357843137254902</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L36">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1754,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>262</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1762,13 +1774,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3265306122448979</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1780,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1788,13 +1800,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3233082706766917</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1806,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1814,13 +1826,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.308641975308642</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1832,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1840,13 +1852,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3073929961089494</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L40">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M40">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1858,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1866,13 +1878,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.2741935483870968</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1884,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1892,13 +1904,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.2702702702702703</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1910,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1918,13 +1930,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.2631578947368421</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1936,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1944,13 +1956,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2561643835616438</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L44">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1962,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>543</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1970,13 +1982,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2376237623762376</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1988,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>77</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1996,13 +2008,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2352941176470588</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2014,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2022,13 +2034,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.232508073196986</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L47">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2040,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>713</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2048,13 +2060,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.219435736677116</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L48">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2066,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>249</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2074,13 +2086,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2158273381294964</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2092,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2100,13 +2112,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2105263157894737</v>
+        <v>0.25</v>
       </c>
       <c r="L50">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2118,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>165</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2126,13 +2138,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.1946308724832215</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2144,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2152,13 +2164,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.1920529801324503</v>
+        <v>0.2346609257265877</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2170,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>122</v>
+        <v>711</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2178,13 +2190,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.1636828644501279</v>
+        <v>0.2006269592476489</v>
       </c>
       <c r="L53">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="M53">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2196,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>654</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2204,13 +2216,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1602649006622517</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L54">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2222,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>634</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2230,13 +2242,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.1574074074074074</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2248,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2256,13 +2268,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1475409836065574</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2274,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2282,13 +2294,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1441441441441441</v>
+        <v>0.1636828644501279</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2300,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>95</v>
+        <v>654</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2308,13 +2320,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1428571428571428</v>
+        <v>0.1629139072847682</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2326,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>90</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2334,13 +2346,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.121654501216545</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L59">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2352,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>361</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2360,25 +2372,25 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1099656357388316</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>259</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2386,13 +2398,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1097560975609756</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2404,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2412,13 +2424,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1008403361344538</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2430,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>214</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2438,25 +2450,25 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.0945945945945946</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L63">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2464,13 +2476,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.09090909090909091</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L64">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M64">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2482,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>400</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2490,13 +2502,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.09090909090909091</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>150</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2516,13 +2528,13 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.08518518518518518</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2534,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>247</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2542,13 +2554,13 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.07456140350877193</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2560,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2568,13 +2580,13 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.07306590257879657</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L68">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2586,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>647</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2594,7 +2606,7 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.06830601092896176</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="L69">
         <v>25</v>
@@ -2612,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>341</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2620,25 +2632,25 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.06682577565632458</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="L70">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>391</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2646,13 +2658,13 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.06273062730627306</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2664,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>254</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2672,13 +2684,13 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.04944029850746268</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L72">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M72">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2690,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1019</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2698,13 +2710,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.04568527918781726</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2716,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>376</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2724,13 +2736,13 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.02767527675276753</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2742,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>527</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2750,25 +2762,129 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.02424242424242424</v>
+        <v>0.06025824964131994</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N75">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1127</v>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76">
+        <v>0.05228758169934641</v>
+      </c>
+      <c r="L76">
+        <v>56</v>
+      </c>
+      <c r="M76">
+        <v>57</v>
+      </c>
+      <c r="N76">
+        <v>0.98</v>
+      </c>
+      <c r="O76">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K77">
+        <v>0.03874538745387454</v>
+      </c>
+      <c r="L77">
+        <v>21</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78">
+        <v>0.03831417624521073</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79">
+        <v>0.02859618717504333</v>
+      </c>
+      <c r="L79">
+        <v>33</v>
+      </c>
+      <c r="M79">
+        <v>36</v>
+      </c>
+      <c r="N79">
+        <v>0.92</v>
+      </c>
+      <c r="O79">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
